--- a/biology/Botanique/Lycte_brun/Lycte_brun.xlsx
+++ b/biology/Botanique/Lycte_brun/Lycte_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lyctus brunneus
 Le lycte brun (Lyctus brunneus) est une espèce de coléoptères à larve xylophage de la famille des bostrichidés.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lycte brun est considéré aujourd'hui comme l'un des plus dangereux insectes xylophages en raison des dégâts qu'il commet dans le bois ouvré. Il attaque les essences feuillues à larges vaisseaux, car les femelles sont capables d'y pondre leurs œufs. Il est aussi présent dans les entrepôts, les musées et les habitations.
 </t>
@@ -543,7 +557,9 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'adulte mesure 4 à 7 mm de longueur.
 Brun foncé à brun roussâtre.</t>
@@ -574,7 +590,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les adultes apparaissent généralement pendant les mois d'été, mais on peut les trouver dans les locaux chauffés tout au long de l'année.
 Les larves de lyctus rongent le bois de l’intérieur pour ne laisser qu'une fine surface de bois sur le dessus.</t>
@@ -605,13 +623,15 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes émergent en creusant un trou d'épingle de 1 à 2 mm, souvent appelé « criblure ».
 L'ensemble du cycle de vie dure environ un an.
 Ce sont les principaux parasites des scieries.
 Si on leur en laisse le temps, le bois peut être réduit à un tas de poudre fine qui s'effrite au toucher.
-La présence du genre Lyctus dans l'aubier est corrélée avec la présence d'amidon dans les cellules de parenchyme. L'abattage printanier des arbres — au moment où l'amidon est le plus bas, car mobilisé et utilisé pour passer l'hiver — plutôt qu'en automne, permet de diminuer les risques d'attaque. Un séchage à sec des grumes a montré aussi que les cellules vivantes consommaient jusqu'à épuisement les réserves d'amidon. L'immersion des grumes en stockage humide a aussi pour conséquence que les cellules sont lavées de leur amidon[1],[2].
+La présence du genre Lyctus dans l'aubier est corrélée avec la présence d'amidon dans les cellules de parenchyme. L'abattage printanier des arbres — au moment où l'amidon est le plus bas, car mobilisé et utilisé pour passer l'hiver — plutôt qu'en automne, permet de diminuer les risques d'attaque. Un séchage à sec des grumes a montré aussi que les cellules vivantes consommaient jusqu'à épuisement les réserves d'amidon. L'immersion des grumes en stockage humide a aussi pour conséquence que les cellules sont lavées de leur amidon,.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Prédateurs naturels</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Denops albofasciatus est son prédateur naturel en Europe.
 </t>
